--- a/Without Duplication.xlsx
+++ b/Without Duplication.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1155,6 +1155,42 @@
         </is>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>me20230351@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://mina-ezzat11.github.io/mina-ezzat12/</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>sm20230319@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://shmohamed30.github.io/mybadge./</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>se20230208@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>https://m3hmoudhani.github.io/github.io.sheref/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Without Duplication.xlsx
+++ b/Without Duplication.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B63"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1191,6 +1191,18 @@
         </is>
       </c>
     </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>am20232318@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>https://abdullah-m2023.github.io/Repo/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Without Duplication.xlsx
+++ b/Without Duplication.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1203,6 +1203,18 @@
         </is>
       </c>
     </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>rr20231278@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>https://rana5890.github.io/my-page/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Without Duplication.xlsx
+++ b/Without Duplication.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B65"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1215,6 +1215,18 @@
         </is>
       </c>
     </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>at20233308@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>https://mariamyousef-boop.github.io/this-is-my-page/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Without Duplication.xlsx
+++ b/Without Duplication.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1227,6 +1227,30 @@
         </is>
       </c>
     </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>as20232248@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>https://hoda3225.github.io/my-first-webpage/</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>ys20231357@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>https://goo782.github.io/My-page/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Without Duplication.xlsx
+++ b/Without Duplication.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1251,6 +1251,18 @@
         </is>
       </c>
     </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>ns20232229@sav.edu.eg</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>https://nesmasayed2004.github.io/mypage/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Without Duplication.xlsx
+++ b/Without Duplication.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B69"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1263,6 +1263,18 @@
         </is>
       </c>
     </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>aw20230244@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>https://hhn-yy.github.io/my-page/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Without Duplication.xlsx
+++ b/Without Duplication.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1275,6 +1275,42 @@
         </is>
       </c>
     </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>me20233253@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>https://mariam2005856.github.io/mariam_essam/</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>re20231348@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>https://rehabezzat122.github.io/first-web-page/</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>ea20230350@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>https://eman2005820.github.io/mypage./</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Without Duplication.xlsx
+++ b/Without Duplication.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B73"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1311,6 +1311,18 @@
         </is>
       </c>
     </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>hm20230396@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>https://hagersalim.github.io/myfirstweb/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Without Duplication.xlsx
+++ b/Without Duplication.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B74"/>
+  <dimension ref="A1:B75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1323,6 +1323,18 @@
         </is>
       </c>
     </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>ae20233312@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>https://mariamyousef-boop.github.io/--my-page-/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Without Duplication.xlsx
+++ b/Without Duplication.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B75"/>
+  <dimension ref="A1:B82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1335,6 +1335,90 @@
         </is>
       </c>
     </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>ss20230389@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>https://saad8000.github.io/student/index.HTML</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>fk20232282@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>https://farah966.github.io/student/index.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>mn20230221@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>https://moasnasr.github.io/my-first-project/</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>ea20235222@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>https://esraaalaa1144.github.io/my-page/</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>aw20222311@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>https://awafa111.github.io/freepalestine/</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>zm20231380@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>https://zyad055.github.io/zoz/</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>bw20230356@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>https://basant-2005.github.io/basant-walid2005/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Without Duplication.xlsx
+++ b/Without Duplication.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1419,6 +1419,18 @@
         </is>
       </c>
     </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>er20231290@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>https://esraa1232.github.io/first-web-page/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Without Duplication.xlsx
+++ b/Without Duplication.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B84"/>
+  <dimension ref="A1:B85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1443,6 +1443,18 @@
         </is>
       </c>
     </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>er20230207@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>https://ibrahimrrada.github.io/PageSite/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Without Duplication.xlsx
+++ b/Without Duplication.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B85"/>
+  <dimension ref="A1:B86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1455,6 +1455,18 @@
         </is>
       </c>
     </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>mk20233227@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>https://mohamed55249.github.io/my-page-html/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Without Duplication.xlsx
+++ b/Without Duplication.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B86"/>
+  <dimension ref="A1:B88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1467,6 +1467,30 @@
         </is>
       </c>
     </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>bn20231355@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>https://basmala390.github.io/bosy66/</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>an20231390@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>https://abdelhalem22.github.io/my-web-page/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Without Duplication.xlsx
+++ b/Without Duplication.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B88"/>
+  <dimension ref="A1:B89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1491,6 +1491,18 @@
         </is>
       </c>
     </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>za20230341@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>https://thedarkestone1.github.io/My-wabe-bage/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Without Duplication.xlsx
+++ b/Without Duplication.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B89"/>
+  <dimension ref="A1:B90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1503,6 +1503,18 @@
         </is>
       </c>
     </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>km20231353@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>https://karimmohammed5.github.io/KMPage/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Without Duplication.xlsx
+++ b/Without Duplication.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B85"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1455,6 +1455,343 @@
         </is>
       </c>
     </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>an20231390@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>https://abdelhalem22.github.io/my-web-page/</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>am20234326@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>https://abdullahmahmoud20234326.github.io/ElsafwaWeb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>bn20231355@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>https://basmala390.github.io/bosy66/</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>mk20233227@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>https://mohamed55249.github.io/my-page-html/</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>mh20232262@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>https://hazem362.github.io/My-first-page/</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>ma20233362@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>https://mabdo1907.github.io/MyFirstWebPage/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>aw20233381@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>https://abdelrhman-waleed.github.io/boda/</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>ma20230311@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>https://memoxx19.github.io/calculator/</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>km20231353@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>https://karimmohammed5.github.io/KMPage/</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>mh20230243@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>https://mh20230243.github.io/simple-html-page/</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>ky20231346@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>https://khaled20fa.github.io/fantastic-striker/</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>yy20231347@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>https://joo20ma.github.io/Defence-rock/</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>ma20230385@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>https://mariem55345.github.io/mariem/</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>nm20231304@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>https://nouracodes.github.io/nada/</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>nm20231251@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>https://nouracodes.github.io/nouracodes-.github-.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>ff20232234@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>https://fahd20051.github.io/Fa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>sn20230254@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>https://sandy596.github.io/my-page/
+Last deployed by @sandy596 sandy596 37 minutes ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>ba20231388@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>https://bosy2030.github.io/-/</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>km20231340@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>https://kareem01234.github.io/My-first-webage/</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>aa20231393@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>https://aida581.github.io/My-first-webpage/</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>ya20232327@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>https://el-kofix.github.io/assa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>sf20231256@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>https://shroukfayez1.github.io/My-First-Webpage/</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>rh20232342@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>https://reham56389.github.io/My-First-webpage-/</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>rt20231208@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>https://rahmacode767.github.io/my_website-/</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>am20234326@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>https://abdullahmahmoud20234326.github.io/Summary/</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>ra20232378@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>https://rokaabobakr.github.io/New/</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>rh20230275@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>https://reemht.github.io/mypage/</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>ag20233285@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>https://ag202332855.github.io/myfirstpage/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Without Duplication.xlsx
+++ b/Without Duplication.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B176"/>
+  <dimension ref="A1:B179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2549,6 +2549,42 @@
         </is>
       </c>
     </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>om20230295@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>https://mora2811.github.io/My-first-webege/</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>kh20232232@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>https://karimhamedo.github.io/My-first-webpage-/</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>ra20230338@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>https://rahma44446.github.io/Rahma/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Without Duplication.xlsx
+++ b/Without Duplication.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B179"/>
+  <dimension ref="A1:B180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2552,34 +2552,46 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>om20230295@sva.edu.eg</t>
+          <t>mm20232311@sva.edu.eg</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>https://mora2811.github.io/My-first-webege/</t>
+          <t>https://manar-mohsen66666666.github.io/My-frist-webpage-/</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>kh20232232@sva.edu.eg</t>
+          <t>om20230295@sva.edu.eg</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>https://karimhamedo.github.io/My-first-webpage-/</t>
+          <t>https://mora2811.github.io/My-first-webege/</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
+          <t>kh20232232@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>https://karimhamedo.github.io/My-first-webpage-/</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
           <t>ra20230338@sva.edu.eg</t>
         </is>
       </c>
-      <c r="B179" t="inlineStr">
+      <c r="B180" t="inlineStr">
         <is>
           <t>https://rahma44446.github.io/Rahma/</t>
         </is>

--- a/Without Duplication.xlsx
+++ b/Without Duplication.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B180"/>
+  <dimension ref="A1:B182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2597,6 +2597,30 @@
         </is>
       </c>
     </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>ma20230311@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>https://memoxxx19.github.io/STORE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>aw20230271@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>https://aya1572005.github.io/Aya-waleed-/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Without Duplication.xlsx
+++ b/Without Duplication.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B182"/>
+  <dimension ref="A1:B191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2621,6 +2621,114 @@
         </is>
       </c>
     </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>ms20230314@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>https://mona563.github.io/MY-First-webpage-/</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>ma20234286@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>https://mohamedahmedkedr.github.io/ma20234268/</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>ta20231385@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>https://tahia536.github.io/My-first-webpage/</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>gs20231285@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>https://ghada574.github.io/-My-first-webpage-/</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>ms20232337@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>https://mai123263.github.io/My-first-webpage/</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>ma20234286@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>https://mohamedahmedkedr.github.io/ma20234286/</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>se20230377@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>https://21223asddd.github.io/My-first-web-page-/</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>bh20231332@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>https://basmala874.github.io/MYProject/</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>aa20234378@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>https://bebo0103373.github.io/mybebo/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Without Duplication.xlsx
+++ b/Without Duplication.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B191"/>
+  <dimension ref="A1:B209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2729,6 +2729,224 @@
         </is>
       </c>
     </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>aa20234370@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>https://adel2005281.github.io/Adel-Ahmed2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>mm20233275@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>https://darderyy12.github.io/my/</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>yh20230249@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://mandoxl.github.io/youssef/
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>sh20231373@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>https://ag202332855.github.io/myfirstpage00/</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>na20232317@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>https://nancyali2004.github.io/my-first-wep-padge/</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>me20232383@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>https://el-tayyeb.github.io/end/</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>my20233369@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>https://mai6789.github.io/my-first-page/</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>nt20234219@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>https://nesreen56389.github.io/My-First-webpage/</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>mg20232325@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>https://mohamed2310.github.io/My-first-webpage/</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>am20231397@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>https://mohamed55249.github.io/html-my-page/</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>bw20230356@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>https://basant-2005.github.io/my_simple_page/
+https://basant-2005.github.io/basant-walid2005/</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>ma20230213@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>https://moi-svg.github.io/Mypage/</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>ma20233382@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>https://mostafa20233382.github.io/mypage/</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>sa20230315@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>https://shahdaboshanab.github.io/My-first-WebPage/</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>se20232380@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>https://se202323.github.io/Index.html/</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>sm20234249@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>https://shahdmohamed7.github.io/Mypage/</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>ms20234382@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>https://mohamedsamy20234382.github.io/mypage/</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>sm20232238@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>https://seif1920.github.io/My-first-webpage/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Without Duplication.xlsx
+++ b/Without Duplication.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B209"/>
+  <dimension ref="A1:B239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2947,6 +2947,368 @@
         </is>
       </c>
     </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>ya20233374@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>https://yomna586.github.io/my-first-webpage/</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>me20230324@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>https://marwaessam266.github.io/mypages/</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>ya20230245@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>https://arabyyara4.github.io/Yara/</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>as20233338@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>https://abelrahman122.github.io/my-first-webpage-/</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>ff20230291@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>https://ff20230291.github.io/ff20230291/</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>hm20231218@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>https://hassantokyo.github.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>mn20232230@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>https://mazen512958.github.io/صفحتي-الويب-الأولى/</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>ho20232357@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>https://hassanosama900.github.io/My-first-webpage/</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>ma20230385@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>https://mariem55345.github.io/mapagewep.../</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>ah20231246@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>https://alishalbay.github.io/mypage/</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>aw20231221@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>https://amaal223.github.io/mypage/</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>am20231261@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>https://ayamohsen900.github.io/My-first-webpage/</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>da20232297@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>https://mohamed55249.github.io/page55/</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>ms20232354@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>https://mohamed55249.github.io/page22/</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>ha20230233@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>https://habiba753.github.io/Habiba753/</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>aw20230244@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>https://aw-ifss.github.io/My_websit/</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>yy20230257@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>https://yarayaserxx.github.io/PROJECT/</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>ma20222236@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>https://moham753.github.io/Moham753/</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>as20230239@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>https://abdo6548.github.io/Abdo11/
+آلة حاسبة بسيطة</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>as20230239@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>آلة حاسبة بسيطة
+https://abdo6548.github.io/Abdo11/</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>bs20230333@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>https://chocomist.github.io/My-firist-web-page/</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>we20230288@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>https://mandoxl.github.io/wesam/</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>gr20230247@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>https://jana20061234.github.io/Thepage/</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>wm20230347@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>https://w20230347.github.io/mypage/</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>ds20235229@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>https://mrym352.github.io/My-first-webpage-/</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>mq20233236@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>https://mohamed55249.github.io/page21/</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>am20231261@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>https://ayamohsen1.github.io/message/</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>ah20232242@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>https://mohamed55249.github.io/page121/</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>nm20233225@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>https://n1o2r3a4.github.io/Myfirstwebpage/</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>me20232383@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>https://el-tayyeb.github.io/end/#contactMe</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Without Duplication.xlsx
+++ b/Without Duplication.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moh_zakria\Desktop\Students URLs\MyWeRepo\MyWeRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25746259-6584-4273-8F6C-FD5B156D5BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAE13B8-40BA-4666-8391-EC84DB403041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -936,10 +936,6 @@
     <t>ns20232229@sva.edu.eg</t>
   </si>
   <si>
-    <t>https://nesmasayed2004.github.io/mypage/
-(بعد التحديث</t>
-  </si>
-  <si>
     <t>aa20232339@sva.edu.eg</t>
   </si>
   <si>
@@ -1292,6 +1288,9 @@
   </si>
   <si>
     <t>https://el-tayyeb.github.io/end/#contactMe</t>
+  </si>
+  <si>
+    <t>https://nesmasayed2004.github.io/mypage/(بعد التحديث)</t>
   </si>
 </sst>
 </file>
@@ -1404,7 +1403,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1439,6 +1438,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1744,11 +1744,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="A212" sqref="A212"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="B151" sqref="B151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -2946,56 +2950,56 @@
       <c r="A150" t="s">
         <v>303</v>
       </c>
-      <c r="B150" s="11" t="s">
-        <v>304</v>
+      <c r="B150" s="16" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
+        <v>304</v>
+      </c>
+      <c r="B151" s="10" t="s">
         <v>305</v>
-      </c>
-      <c r="B151" s="10" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
+        <v>306</v>
+      </c>
+      <c r="B152" s="10" t="s">
         <v>307</v>
-      </c>
-      <c r="B152" s="10" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
+        <v>308</v>
+      </c>
+      <c r="B153" s="10" t="s">
         <v>309</v>
-      </c>
-      <c r="B153" s="10" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>310</v>
+      </c>
+      <c r="B154" s="10" t="s">
         <v>311</v>
-      </c>
-      <c r="B154" s="10" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
+        <v>312</v>
+      </c>
+      <c r="B155" s="10" t="s">
         <v>313</v>
-      </c>
-      <c r="B155" s="10" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
+        <v>314</v>
+      </c>
+      <c r="B156" s="10" t="s">
         <v>315</v>
-      </c>
-      <c r="B156" s="10" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -3003,151 +3007,151 @@
         <v>44</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
+        <v>317</v>
+      </c>
+      <c r="B158" s="10" t="s">
         <v>318</v>
-      </c>
-      <c r="B158" s="10" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
+        <v>319</v>
+      </c>
+      <c r="B159" s="10" t="s">
         <v>320</v>
-      </c>
-      <c r="B159" s="10" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
+        <v>322</v>
+      </c>
+      <c r="B160" s="10" t="s">
         <v>323</v>
-      </c>
-      <c r="B160" s="10" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
+        <v>324</v>
+      </c>
+      <c r="B161" s="10" t="s">
         <v>325</v>
-      </c>
-      <c r="B161" s="10" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
+        <v>326</v>
+      </c>
+      <c r="B162" s="10" t="s">
         <v>327</v>
-      </c>
-      <c r="B162" s="10" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>329</v>
+      </c>
+      <c r="B164" s="10" t="s">
         <v>330</v>
-      </c>
-      <c r="B164" s="10" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
+        <v>331</v>
+      </c>
+      <c r="B165" s="10" t="s">
         <v>332</v>
-      </c>
-      <c r="B165" s="10" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
+        <v>333</v>
+      </c>
+      <c r="B166" s="10" t="s">
         <v>334</v>
-      </c>
-      <c r="B166" s="10" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
+        <v>335</v>
+      </c>
+      <c r="B167" s="10" t="s">
         <v>336</v>
-      </c>
-      <c r="B167" s="10" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
+        <v>337</v>
+      </c>
+      <c r="B168" s="10" t="s">
         <v>338</v>
-      </c>
-      <c r="B168" s="10" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
+        <v>339</v>
+      </c>
+      <c r="B169" s="10" t="s">
         <v>340</v>
-      </c>
-      <c r="B169" s="10" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
+        <v>341</v>
+      </c>
+      <c r="B170" s="10" t="s">
         <v>342</v>
-      </c>
-      <c r="B170" s="10" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
+        <v>343</v>
+      </c>
+      <c r="B171" s="10" t="s">
         <v>344</v>
-      </c>
-      <c r="B171" s="10" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
+        <v>346</v>
+      </c>
+      <c r="B172" s="10" t="s">
         <v>347</v>
-      </c>
-      <c r="B172" s="10" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>348</v>
+      </c>
+      <c r="B173" s="10" t="s">
         <v>349</v>
-      </c>
-      <c r="B173" s="10" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>350</v>
+      </c>
+      <c r="B174" s="10" t="s">
         <v>351</v>
-      </c>
-      <c r="B174" s="10" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
+        <v>352</v>
+      </c>
+      <c r="B175" s="10" t="s">
         <v>353</v>
-      </c>
-      <c r="B175" s="10" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -3155,127 +3159,127 @@
         <v>148</v>
       </c>
       <c r="B176" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>355</v>
+      </c>
+      <c r="B177" s="10" t="s">
         <v>356</v>
-      </c>
-      <c r="B177" s="10" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>357</v>
+      </c>
+      <c r="B178" s="10" t="s">
         <v>358</v>
-      </c>
-      <c r="B178" s="10" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
+        <v>359</v>
+      </c>
+      <c r="B179" s="10" t="s">
         <v>360</v>
-      </c>
-      <c r="B179" s="10" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
+        <v>361</v>
+      </c>
+      <c r="B180" s="10" t="s">
         <v>362</v>
-      </c>
-      <c r="B180" s="10" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
+        <v>363</v>
+      </c>
+      <c r="B181" s="10" t="s">
         <v>364</v>
-      </c>
-      <c r="B181" s="10" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
+        <v>365</v>
+      </c>
+      <c r="B182" s="10" t="s">
         <v>366</v>
-      </c>
-      <c r="B182" s="10" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
+        <v>367</v>
+      </c>
+      <c r="B183" s="10" t="s">
         <v>368</v>
-      </c>
-      <c r="B183" s="10" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
+        <v>369</v>
+      </c>
+      <c r="B184" s="12" t="s">
         <v>370</v>
-      </c>
-      <c r="B184" s="12" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
+        <v>371</v>
+      </c>
+      <c r="B185" s="12" t="s">
         <v>372</v>
-      </c>
-      <c r="B185" s="12" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
+        <v>373</v>
+      </c>
+      <c r="B186" s="13" t="s">
         <v>374</v>
-      </c>
-      <c r="B186" s="13" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
+        <v>375</v>
+      </c>
+      <c r="B187" s="13" t="s">
         <v>376</v>
-      </c>
-      <c r="B187" s="13" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
+        <v>377</v>
+      </c>
+      <c r="B188" s="12" t="s">
         <v>378</v>
-      </c>
-      <c r="B188" s="12" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
+        <v>379</v>
+      </c>
+      <c r="B189" s="12" t="s">
         <v>380</v>
-      </c>
-      <c r="B189" s="12" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
+        <v>381</v>
+      </c>
+      <c r="B190" s="14" t="s">
         <v>382</v>
-      </c>
-      <c r="B190" s="14" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
+        <v>383</v>
+      </c>
+      <c r="B191" s="13" t="s">
         <v>384</v>
-      </c>
-      <c r="B191" s="13" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -3283,7 +3287,7 @@
         <v>104</v>
       </c>
       <c r="B192" s="12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -3291,39 +3295,39 @@
         <v>105</v>
       </c>
       <c r="B193" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
+        <v>387</v>
+      </c>
+      <c r="B194" s="12" t="s">
         <v>388</v>
-      </c>
-      <c r="B194" s="12" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
+        <v>390</v>
+      </c>
+      <c r="B195" s="12" t="s">
         <v>391</v>
-      </c>
-      <c r="B195" s="12" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
+        <v>392</v>
+      </c>
+      <c r="B196" s="13" t="s">
         <v>393</v>
-      </c>
-      <c r="B196" s="13" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
+        <v>394</v>
+      </c>
+      <c r="B197" s="13" t="s">
         <v>395</v>
-      </c>
-      <c r="B197" s="13" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -3331,111 +3335,111 @@
         <v>125</v>
       </c>
       <c r="B198" s="13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
+        <v>397</v>
+      </c>
+      <c r="B199" s="12" t="s">
         <v>398</v>
-      </c>
-      <c r="B199" s="12" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
+        <v>399</v>
+      </c>
+      <c r="B200" s="13" t="s">
         <v>400</v>
-      </c>
-      <c r="B200" s="13" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
+        <v>401</v>
+      </c>
+      <c r="B201" s="15" t="s">
         <v>402</v>
-      </c>
-      <c r="B201" s="15" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
+        <v>403</v>
+      </c>
+      <c r="B202" s="13" t="s">
         <v>404</v>
-      </c>
-      <c r="B202" s="13" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
+        <v>405</v>
+      </c>
+      <c r="B203" s="13" t="s">
         <v>406</v>
-      </c>
-      <c r="B203" s="13" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
+        <v>407</v>
+      </c>
+      <c r="B204" s="12" t="s">
         <v>408</v>
-      </c>
-      <c r="B204" s="12" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
+        <v>409</v>
+      </c>
+      <c r="B205" s="12" t="s">
         <v>410</v>
-      </c>
-      <c r="B205" s="12" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
+        <v>411</v>
+      </c>
+      <c r="B206" s="12" t="s">
         <v>412</v>
-      </c>
-      <c r="B206" s="12" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
+        <v>413</v>
+      </c>
+      <c r="B207" s="13" t="s">
         <v>414</v>
-      </c>
-      <c r="B207" s="13" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B208" s="12" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
+        <v>416</v>
+      </c>
+      <c r="B209" s="13" t="s">
         <v>417</v>
-      </c>
-      <c r="B209" s="13" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
+        <v>418</v>
+      </c>
+      <c r="B210" s="13" t="s">
         <v>419</v>
-      </c>
-      <c r="B210" s="13" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B211" s="13" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -3636,6 +3640,7 @@
     <hyperlink ref="B209" r:id="rId194" xr:uid="{CB70DB8F-1454-4980-9DB7-EF664CD4A455}"/>
     <hyperlink ref="B210" r:id="rId195" xr:uid="{B9CD5571-B05A-4778-8003-88121BCCE158}"/>
     <hyperlink ref="B211" r:id="rId196" location="contactMe" display="https://el-tayyeb.github.io/end/ - contactMe" xr:uid="{665DCF86-7654-4413-8EF6-DAC0A167ACCF}"/>
+    <hyperlink ref="B150" r:id="rId197" xr:uid="{25771E9D-4599-4970-AEFA-BF470C807613}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Without Duplication.xlsx
+++ b/Without Duplication.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B263"/>
+  <dimension ref="A1:B276"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3601,6 +3601,162 @@
         </is>
       </c>
     </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>kh20234275@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>https://kh20234275.github.io/-khlood-web-/</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>ay20231291@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>https://aya1372005.github.io/index.html/</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>si20233292@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>https://shrouk536.github.io/my-first-web-page-/</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>rh20232289@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>https://mahmoud75364.github.io/cv.rawan/</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>rm20232267@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>https://rehab151.github.io/Rehab12/</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>am20231359@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>https://bodaa47.github.io/my-first-webpage/</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>ah20231307@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>https://alaa123-a55.github.io/My-first-webpage/</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>fa20233284@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>https://fatmaayman9019.github.io/My-first-webpage/</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>ms20234282@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>https://ms20234282.github.io/My-Mohamed-/</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>mm20231215@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>https://11malak.github.io/my-webpage/</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>sh20230235@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>https://salma882005.github.io/my-first-webpage/</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>za20230398@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>https://zaineb553.github.io/my-first-web-page-/</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>bm20233307@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>https://bm-666422.github.io/My-first-webpage-2/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Without Duplication.xlsx
+++ b/Without Duplication.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B276"/>
+  <dimension ref="A1:B277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3757,6 +3757,18 @@
         </is>
       </c>
     </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>hm20233347@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>https://mohamed55249.github.io/page-252/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Without Duplication.xlsx
+++ b/Without Duplication.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B277"/>
+  <dimension ref="A1:B278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3769,6 +3769,18 @@
         </is>
       </c>
     </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>fm20233238@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>https://fatmanowar.github.io/mypage-/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Without Duplication.xlsx
+++ b/Without Duplication.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B278"/>
+  <dimension ref="A1:B279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3781,6 +3781,18 @@
         </is>
       </c>
     </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>shahdnaser9994@gmail.com</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>https://shahd99944.github.io/my-project1/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Without Duplication.xlsx
+++ b/Without Duplication.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B279"/>
+  <dimension ref="A1:B282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3793,6 +3793,42 @@
         </is>
       </c>
     </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>ba20231204@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>https://basmala-eng388.github.io/My-first-webpage-/</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>na20230297@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>https://na20230297.github.io/My-first-wabpage/</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>sr20234226@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>https://shereen0478.github.io/my-progect2/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Without Duplication.xlsx
+++ b/Without Duplication.xlsx
@@ -3784,7 +3784,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>shahdnaser9994@gmail.com</t>
+          <t>sn20234213@sva.edu.eg</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">

--- a/Without Duplication.xlsx
+++ b/Without Duplication.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B282"/>
+  <dimension ref="A1:B287"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3829,6 +3829,66 @@
         </is>
       </c>
     </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>sg20234242@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>https://samagamal9694s.github.io/my-projet1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>ie20230269@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>https://eslam688.github.io/mypage/</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>ma20231262@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>https://mohamedatia223.github.io/My-first-webpage/</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>ay20230256@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>https://abdallayasser2004.github.io/My-first-webpage/</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>ma20230375@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>https://demonalo.github.io/first-webpage/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Without Duplication.xlsx
+++ b/Without Duplication.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B287"/>
+  <dimension ref="A1:B288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3889,6 +3889,18 @@
         </is>
       </c>
     </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>my20230284@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>https://loloah20.github.io/index.html/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Without Duplication.xlsx
+++ b/Without Duplication.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B288"/>
+  <dimension ref="A1:B289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3901,6 +3901,18 @@
         </is>
       </c>
     </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>sm20235208@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>https://shamsmo246.github.io/MY-PAG/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Without Duplication.xlsx
+++ b/Without Duplication.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B289"/>
+  <dimension ref="A1:B290"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3913,6 +3913,18 @@
         </is>
       </c>
     </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>ra20234238@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>https://reham25387.github.io/My-first-webpage-/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Without Duplication.xlsx
+++ b/Without Duplication.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B290"/>
+  <dimension ref="A1:B296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3925,6 +3925,78 @@
         </is>
       </c>
     </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>sm20231314@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>https://rehab221.github.io/Myfirst-wabpage/</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>ai20230331@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>https://shimaa249.github.io/MY-BADG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>am20231341@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>https://github.com/AbdElhamid012/My-first-webpage/actions/runs/14879271245</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>am20231341@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>https://abdelhamid012.github.io/My-first-webpage/</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>ra20234339@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>https://romisaaayman.github.io/Mypage/</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>am20230303@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>https://memoxxx19.github.io/abdullah-profile/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Without Duplication.xlsx
+++ b/Without Duplication.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B296"/>
+  <dimension ref="A1:B298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3997,6 +3997,30 @@
         </is>
       </c>
     </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>am20231349@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>https://20044444444.github.io/Aya/</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Sa20234332@sva.edu.eg</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>https://sama334.github.io/sama/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
